--- a/po_analysis_by_asin/B0BGP87RQ2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BGP87RQ2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,97 +452,257 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45397</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45404</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45411</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45418</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45425</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45432</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45439</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>236</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45446</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B33" t="n">
         <v>60</v>
       </c>
     </row>
@@ -557,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,41 +739,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>404</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>100</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BGP87RQ2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BGP87RQ2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,201 +508,145 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>290</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>254</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>332</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>248</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45417.99999999999</v>
-      </c>
-      <c r="B27" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45424.99999999999</v>
-      </c>
-      <c r="B28" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45431.99999999999</v>
-      </c>
-      <c r="B29" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45438.99999999999</v>
-      </c>
-      <c r="B30" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45445.99999999999</v>
-      </c>
-      <c r="B31" t="n">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45452.99999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45459.99999999999</v>
-      </c>
-      <c r="B33" t="n">
         <v>60</v>
       </c>
     </row>
@@ -717,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,7 +702,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>450</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -766,7 +710,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>836</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -803,33 +747,25 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>92</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45473.99999999999</v>
-      </c>
-      <c r="B13" t="n">
         <v>100</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BGP87RQ2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BGP87RQ2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -677,7 +678,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -767,6 +768,509 @@
       </c>
       <c r="B12" t="n">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.56049401143895</v>
+      </c>
+      <c r="D2" t="n">
+        <v>104.4284552085926</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-13.60625831117636</v>
+      </c>
+      <c r="D3" t="n">
+        <v>110.3739844141056</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-11.51174670484102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.6284745735361</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.658053035974049</v>
+      </c>
+      <c r="D5" t="n">
+        <v>108.563482427946</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-10.2005209836438</v>
+      </c>
+      <c r="D6" t="n">
+        <v>108.3971067566398</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>49</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.057471487444175</v>
+      </c>
+      <c r="D7" t="n">
+        <v>106.0747859240479</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.865457783079977</v>
+      </c>
+      <c r="D8" t="n">
+        <v>105.2186413413726</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.58132578783702</v>
+      </c>
+      <c r="D9" t="n">
+        <v>112.4275623819988</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11.50761553446732</v>
+      </c>
+      <c r="D10" t="n">
+        <v>114.0969001016254</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.251916747494327</v>
+      </c>
+      <c r="D11" t="n">
+        <v>109.3559021432273</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>51</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.6730580159299</v>
+      </c>
+      <c r="D12" t="n">
+        <v>108.9085552183519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12.55872926658225</v>
+      </c>
+      <c r="D13" t="n">
+        <v>108.2944433486225</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>53</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-6.646349817871691</v>
+      </c>
+      <c r="D14" t="n">
+        <v>113.2198860543224</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>54</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-6.762310870224626</v>
+      </c>
+      <c r="D15" t="n">
+        <v>115.0842328843318</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>54</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-8.28253523274585</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.7032407624686</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>54</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-9.166811361532696</v>
+      </c>
+      <c r="D17" t="n">
+        <v>113.4065738506884</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.7011652873776104</v>
+      </c>
+      <c r="D18" t="n">
+        <v>116.077448457721</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.6511797666898081</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121.675248317953</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>57</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-6.375221090546185</v>
+      </c>
+      <c r="D20" t="n">
+        <v>115.5139830323426</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.265408696847387</v>
+      </c>
+      <c r="D21" t="n">
+        <v>119.7152281271258</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>58</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.073685946912916</v>
+      </c>
+      <c r="D22" t="n">
+        <v>112.6510107314296</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>58</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2372937753690497</v>
+      </c>
+      <c r="D23" t="n">
+        <v>122.6866022006237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>58</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-7.271251314073092</v>
+      </c>
+      <c r="D24" t="n">
+        <v>119.226487941545</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>58</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.805470392652321</v>
+      </c>
+      <c r="D25" t="n">
+        <v>118.2570907067025</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>58</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7520191228424874</v>
+      </c>
+      <c r="D26" t="n">
+        <v>119.0357386222691</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.601054752831948</v>
+      </c>
+      <c r="D27" t="n">
+        <v>119.4878099812896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>59</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.007280554549571</v>
+      </c>
+      <c r="D28" t="n">
+        <v>116.7443818547925</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.889204229201912</v>
+      </c>
+      <c r="D29" t="n">
+        <v>116.7448164099437</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5327950195123483</v>
+      </c>
+      <c r="D30" t="n">
+        <v>120.4246913846022</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>59</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.609559763707881</v>
+      </c>
+      <c r="D31" t="n">
+        <v>116.0035349726258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>59</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.294944991089726</v>
+      </c>
+      <c r="D32" t="n">
+        <v>117.5329181919511</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>59</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-4.118140962486004</v>
+      </c>
+      <c r="D33" t="n">
+        <v>117.6286642315746</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.471552288674176</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120.9673725575299</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BGP87RQ2_po_data.xlsx
+++ b/po_analysis_by_asin/B0BGP87RQ2_po_data.xlsx
@@ -781,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,16 +800,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -818,12 +808,6 @@
       <c r="B2" t="n">
         <v>48</v>
       </c>
-      <c r="C2" t="n">
-        <v>-13.56049401143895</v>
-      </c>
-      <c r="D2" t="n">
-        <v>104.4284552085926</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -832,12 +816,6 @@
       <c r="B3" t="n">
         <v>48</v>
       </c>
-      <c r="C3" t="n">
-        <v>-13.60625831117636</v>
-      </c>
-      <c r="D3" t="n">
-        <v>110.3739844141056</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -846,12 +824,6 @@
       <c r="B4" t="n">
         <v>48</v>
       </c>
-      <c r="C4" t="n">
-        <v>-11.51174670484102</v>
-      </c>
-      <c r="D4" t="n">
-        <v>110.6284745735361</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -860,12 +832,6 @@
       <c r="B5" t="n">
         <v>49</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.658053035974049</v>
-      </c>
-      <c r="D5" t="n">
-        <v>108.563482427946</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -874,12 +840,6 @@
       <c r="B6" t="n">
         <v>49</v>
       </c>
-      <c r="C6" t="n">
-        <v>-10.2005209836438</v>
-      </c>
-      <c r="D6" t="n">
-        <v>108.3971067566398</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -888,12 +848,6 @@
       <c r="B7" t="n">
         <v>49</v>
       </c>
-      <c r="C7" t="n">
-        <v>-8.057471487444175</v>
-      </c>
-      <c r="D7" t="n">
-        <v>106.0747859240479</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -902,12 +856,6 @@
       <c r="B8" t="n">
         <v>49</v>
       </c>
-      <c r="C8" t="n">
-        <v>-7.865457783079977</v>
-      </c>
-      <c r="D8" t="n">
-        <v>105.2186413413726</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -916,12 +864,6 @@
       <c r="B9" t="n">
         <v>50</v>
       </c>
-      <c r="C9" t="n">
-        <v>-12.58132578783702</v>
-      </c>
-      <c r="D9" t="n">
-        <v>112.4275623819988</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -930,12 +872,6 @@
       <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="n">
-        <v>-11.50761553446732</v>
-      </c>
-      <c r="D10" t="n">
-        <v>114.0969001016254</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -944,12 +880,6 @@
       <c r="B11" t="n">
         <v>50</v>
       </c>
-      <c r="C11" t="n">
-        <v>-8.251916747494327</v>
-      </c>
-      <c r="D11" t="n">
-        <v>109.3559021432273</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -958,12 +888,6 @@
       <c r="B12" t="n">
         <v>51</v>
       </c>
-      <c r="C12" t="n">
-        <v>-11.6730580159299</v>
-      </c>
-      <c r="D12" t="n">
-        <v>108.9085552183519</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -972,12 +896,6 @@
       <c r="B13" t="n">
         <v>51</v>
       </c>
-      <c r="C13" t="n">
-        <v>-12.55872926658225</v>
-      </c>
-      <c r="D13" t="n">
-        <v>108.2944433486225</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -986,12 +904,6 @@
       <c r="B14" t="n">
         <v>53</v>
       </c>
-      <c r="C14" t="n">
-        <v>-6.646349817871691</v>
-      </c>
-      <c r="D14" t="n">
-        <v>113.2198860543224</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1000,12 +912,6 @@
       <c r="B15" t="n">
         <v>54</v>
       </c>
-      <c r="C15" t="n">
-        <v>-6.762310870224626</v>
-      </c>
-      <c r="D15" t="n">
-        <v>115.0842328843318</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1014,12 +920,6 @@
       <c r="B16" t="n">
         <v>54</v>
       </c>
-      <c r="C16" t="n">
-        <v>-8.28253523274585</v>
-      </c>
-      <c r="D16" t="n">
-        <v>117.7032407624686</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1028,12 +928,6 @@
       <c r="B17" t="n">
         <v>54</v>
       </c>
-      <c r="C17" t="n">
-        <v>-9.166811361532696</v>
-      </c>
-      <c r="D17" t="n">
-        <v>113.4065738506884</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1042,12 +936,6 @@
       <c r="B18" t="n">
         <v>57</v>
       </c>
-      <c r="C18" t="n">
-        <v>-0.7011652873776104</v>
-      </c>
-      <c r="D18" t="n">
-        <v>116.077448457721</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1056,12 +944,6 @@
       <c r="B19" t="n">
         <v>57</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.6511797666898081</v>
-      </c>
-      <c r="D19" t="n">
-        <v>121.675248317953</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1070,12 +952,6 @@
       <c r="B20" t="n">
         <v>57</v>
       </c>
-      <c r="C20" t="n">
-        <v>-6.375221090546185</v>
-      </c>
-      <c r="D20" t="n">
-        <v>115.5139830323426</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1084,12 +960,6 @@
       <c r="B21" t="n">
         <v>57</v>
       </c>
-      <c r="C21" t="n">
-        <v>1.265408696847387</v>
-      </c>
-      <c r="D21" t="n">
-        <v>119.7152281271258</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1098,12 +968,6 @@
       <c r="B22" t="n">
         <v>58</v>
       </c>
-      <c r="C22" t="n">
-        <v>-4.073685946912916</v>
-      </c>
-      <c r="D22" t="n">
-        <v>112.6510107314296</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1112,12 +976,6 @@
       <c r="B23" t="n">
         <v>58</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.2372937753690497</v>
-      </c>
-      <c r="D23" t="n">
-        <v>122.6866022006237</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1126,12 +984,6 @@
       <c r="B24" t="n">
         <v>58</v>
       </c>
-      <c r="C24" t="n">
-        <v>-7.271251314073092</v>
-      </c>
-      <c r="D24" t="n">
-        <v>119.226487941545</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1140,12 +992,6 @@
       <c r="B25" t="n">
         <v>58</v>
       </c>
-      <c r="C25" t="n">
-        <v>-1.805470392652321</v>
-      </c>
-      <c r="D25" t="n">
-        <v>118.2570907067025</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1154,12 +1000,6 @@
       <c r="B26" t="n">
         <v>58</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.7520191228424874</v>
-      </c>
-      <c r="D26" t="n">
-        <v>119.0357386222691</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1168,12 +1008,6 @@
       <c r="B27" t="n">
         <v>58</v>
       </c>
-      <c r="C27" t="n">
-        <v>-1.601054752831948</v>
-      </c>
-      <c r="D27" t="n">
-        <v>119.4878099812896</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1182,12 +1016,6 @@
       <c r="B28" t="n">
         <v>59</v>
       </c>
-      <c r="C28" t="n">
-        <v>-4.007280554549571</v>
-      </c>
-      <c r="D28" t="n">
-        <v>116.7443818547925</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1196,12 +1024,6 @@
       <c r="B29" t="n">
         <v>59</v>
       </c>
-      <c r="C29" t="n">
-        <v>-3.889204229201912</v>
-      </c>
-      <c r="D29" t="n">
-        <v>116.7448164099437</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1210,12 +1032,6 @@
       <c r="B30" t="n">
         <v>59</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.5327950195123483</v>
-      </c>
-      <c r="D30" t="n">
-        <v>120.4246913846022</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1224,12 +1040,6 @@
       <c r="B31" t="n">
         <v>59</v>
       </c>
-      <c r="C31" t="n">
-        <v>-3.609559763707881</v>
-      </c>
-      <c r="D31" t="n">
-        <v>116.0035349726258</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1238,12 +1048,6 @@
       <c r="B32" t="n">
         <v>59</v>
       </c>
-      <c r="C32" t="n">
-        <v>2.294944991089726</v>
-      </c>
-      <c r="D32" t="n">
-        <v>117.5329181919511</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1252,12 +1056,6 @@
       <c r="B33" t="n">
         <v>59</v>
       </c>
-      <c r="C33" t="n">
-        <v>-4.118140962486004</v>
-      </c>
-      <c r="D33" t="n">
-        <v>117.6286642315746</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1265,12 +1063,6 @@
       </c>
       <c r="B34" t="n">
         <v>60</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-1.471552288674176</v>
-      </c>
-      <c r="D34" t="n">
-        <v>120.9673725575299</v>
       </c>
     </row>
   </sheetData>
